--- a/PLC_EEG_Log_final_summer2014.xlsx
+++ b/PLC_EEG_Log_final_summer2014.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="4560" windowWidth="32840" windowHeight="21820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PLC_EEG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1528,25 +1529,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,6 +1571,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,6 +1597,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1949,9 +1950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI53" sqref="AI53"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1976,18 +1977,18 @@
     <col min="25" max="25" width="10.7109375" style="2" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" style="2" customWidth="1"/>
     <col min="27" max="27" width="27.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="11" style="2" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="16.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16" style="1" customWidth="1"/>
+    <col min="32" max="32" width="23.85546875" style="1" customWidth="1"/>
     <col min="33" max="33" width="19.85546875" style="1" customWidth="1"/>
     <col min="34" max="34" width="8.42578125" style="1" customWidth="1"/>
     <col min="35" max="35" width="7.85546875" style="1" customWidth="1"/>
     <col min="36" max="36" width="6.7109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="6.42578125" style="1" customWidth="1"/>
     <col min="38" max="39" width="6.5703125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" style="1" customWidth="1"/>
     <col min="41" max="41" width="14" style="1" customWidth="1"/>
     <col min="42" max="42" width="13" style="1" customWidth="1"/>
     <col min="43" max="43" width="11" style="1" customWidth="1"/>
@@ -2026,31 +2027,31 @@
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="99"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="33" t="s">
         <v>85</v>
       </c>
       <c r="O1" s="30"/>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="82" t="s">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="96"/>
+      <c r="Z1" s="93"/>
       <c r="AA1" s="13" t="s">
         <v>52</v>
       </c>
@@ -2061,56 +2062,56 @@
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
       <c r="AF1" s="29"/>
-      <c r="AG1" s="82" t="s">
+      <c r="AG1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="82" t="s">
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
       <c r="AW1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="100" t="s">
+      <c r="AX1" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="AY1" s="101"/>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="80" t="s">
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="BC1" s="81"/>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
-      <c r="BF1" s="81"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
       <c r="BG1" s="34"/>
-      <c r="BH1" s="80" t="s">
+      <c r="BH1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="84"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="79"/>
     </row>
     <row r="2" spans="1:68" s="22" customFormat="1" ht="64">
       <c r="A2" s="23"/>
@@ -2122,27 +2123,27 @@
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="24" t="s">
         <v>44</v>
       </c>
       <c r="N2" s="35"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="87"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="24" t="s">
         <v>45</v>
       </c>
@@ -2168,16 +2169,16 @@
       <c r="AG2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="91" t="s">
+      <c r="AH2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="93" t="s">
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="95"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
       <c r="AN2" s="26" t="s">
         <v>35</v>
       </c>
@@ -2190,12 +2191,12 @@
       <c r="AQ2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="93" t="s">
+      <c r="AR2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="95"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="90"/>
       <c r="AV2" s="24" t="s">
         <v>30</v>
       </c>
@@ -2212,27 +2213,27 @@
       <c r="BA2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="93" t="s">
+      <c r="BB2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="95"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="90"/>
       <c r="BF2" s="24" t="s">
         <v>92</v>
       </c>
       <c r="BG2" s="35"/>
-      <c r="BH2" s="85" t="s">
+      <c r="BH2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="86"/>
-      <c r="BO2" s="86"/>
-      <c r="BP2" s="87"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="82"/>
     </row>
     <row r="3" spans="1:68" s="22" customFormat="1" ht="56">
       <c r="A3" s="15" t="s">
@@ -2316,11 +2317,11 @@
         <v>15</v>
       </c>
       <c r="AC3" s="19"/>
-      <c r="AD3" s="77" t="s">
+      <c r="AD3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="79"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="102"/>
       <c r="AG3" s="20" t="s">
         <v>13</v>
       </c>
@@ -2345,11 +2346,11 @@
       <c r="AN3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AO3" s="77" t="s">
+      <c r="AO3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="79"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="102"/>
       <c r="AR3" s="16" t="s">
         <v>8</v>
       </c>
@@ -2367,11 +2368,11 @@
       <c r="AX3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="77" t="s">
+      <c r="AY3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="79"/>
+      <c r="AZ3" s="101"/>
+      <c r="BA3" s="102"/>
       <c r="BB3" s="16" t="s">
         <v>8</v>
       </c>
@@ -9507,7 +9508,7 @@
       <c r="BO41" s="8"/>
       <c r="BP41" s="11"/>
     </row>
-    <row r="42" spans="1:68" s="4" customFormat="1" ht="19" customHeight="1">
+    <row r="42" spans="1:68" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="58">
         <v>40</v>
       </c>
@@ -12604,6 +12605,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AG1:AM1"/>
     <mergeCell ref="BH1:BP1"/>
     <mergeCell ref="BH2:BP2"/>
     <mergeCell ref="J2:L2"/>
@@ -12618,11 +12624,6 @@
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="BB1:BF1"/>
     <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AG1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12632,4 +12633,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>